--- a/medicine/Enfance/Catherine_Zarcate/Catherine_Zarcate.xlsx
+++ b/medicine/Enfance/Catherine_Zarcate/Catherine_Zarcate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catherine Zarcate est une conteuse française. Contant depuis 1979, elle fait partie des artistes à l'origine du renouveau du conte en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catherine Zarcate est une conteuse française. Contant depuis 1979, elle fait partie des artistes à l'origine du renouveau du conte en France.
 Elle raconte des contes, mythes et épopées du monde entier comme des créations personnelles et dispose d'un répertoire de plusieurs dizaines d'heures.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Spectacles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le Singe pèlerin, histoire inspirée de Le Voyage en Occident
 Contes de jade, contes traditionnels chinois
@@ -550,13 +564,15 @@
           <t>Œuvres imprimées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Catherine Zarcate (ill. Laetitia Le Saux), Marouf le cordonnier et autres contes, Paris, Syros, coll. « Paroles de conteurs », 1996, 153 p., 19 cm (ISBN 2-84146-315-X, BNF 35819153)
 Catherine Zarcate (ill. Joëlle Jolivet), Le Loukoum à la pistache et autres contes d'Orient, Paris, Syros, coll. « Paroles de conteurs », 2000, 125 p., 19 cm (ISBN 2-84146-853-4, BNF 37200288)
 Catherine Zarcate, Le Prince des apparences, Paris, Bayard jeunesse, 2002, 327 p., 19 cm (ISBN 2-7470-0672-7, BNF 38945657)
 Catherine Zarcate (ill. Rémi Saillard), Contes du vampire, Paris, Syros jeunesse, coll. « Paroles de conteurs », 2005, 156 p., 19 cm (ISBN 2-7485-0340-6, BNF 39943000)
-Catherine Zarcate (ill. Olivier Charpentier), Le Buffle et l'Oiseau, Paris, Syros jeunesse, 2006, [26], 31 cm (ISBN 2-7485-0486-0, BNF 40940835)
+Catherine Zarcate (ill. Olivier Charpentier), Le Buffle et l'Oiseau, Paris, Syros jeunesse, 2006, , 31 cm (ISBN 2-7485-0486-0, BNF 40940835)
 Catherine Zarcate, L'Enfant de cinq ans et les Voleurs, Paris, Syros, coll. « Mini Syros. Paroles de conteurs », 2008, 47 p., 17 cm (ISBN 978-2-7485-0715-7, BNF 41365180)
 Catherine Zarcate (ill. Irène Bonacina), Contes du vent d'Est, Paris, Syros, coll. « Paroles de conteurs », 2010, 220 p., 23 cm (ISBN 978-2-7485-0799-7, BNF 42343158)
 Catherine Zarcate, Le Singe et le Crocodile, Paris, Syros, coll. « Mini Syros. Paroles de conteurs », 2010, 43 p., 17 cm (ISBN 978-2-7485-0926-7, BNF 42380765)
@@ -589,10 +605,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lauréat Prix des Incorruptibles 2013 (catégorie Maternelle) pour Les poulets guerriers[2].
-Elle obtient un Coup de cœur Jeune Public printemps 2019 de l'Académie Charles Cros avec Élodie Balandras pour Les poulets guerriers[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lauréat Prix des Incorruptibles 2013 (catégorie Maternelle) pour Les poulets guerriers.
+Elle obtient un Coup de cœur Jeune Public printemps 2019 de l'Académie Charles Cros avec Élodie Balandras pour Les poulets guerriers.</t>
         </is>
       </c>
     </row>
